--- a/test/test02.xlsx
+++ b/test/test02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pgj/Documents/workspace/availstool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pgj/code/java/availstool/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1319">
   <si>
     <t>AvailTrans</t>
   </si>
@@ -717,6 +717,54 @@
     <t>Movie</t>
   </si>
   <si>
+    <t>First Dance, The</t>
+  </si>
+  <si>
+    <t>The First Dance</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Early EST</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>10.5240/1489-49A2-3956-4B2D-FE16-6</t>
+  </si>
+  <si>
+    <t>34530345-ABD-WE-2</t>
+  </si>
+  <si>
+    <t>FIRSTDANCE_2012</t>
+  </si>
+  <si>
+    <t>CHVRS</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Rockstar Films</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
     <t>Full Extract</t>
   </si>
   <si>
@@ -729,19 +777,76 @@
     <t>EST</t>
   </si>
   <si>
-    <t>Early EST</t>
+    <t>New Release</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>10.5240/1489-49A2-3956-4B2D-FE16-7</t>
+  </si>
+  <si>
+    <t>34530345-ABD-WE-3</t>
+  </si>
+  <si>
+    <t>FIRSTDANCE_2012</t>
+  </si>
+  <si>
+    <t>CHVRS</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Rockstar Films</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Full Extract</t>
+  </si>
+  <si>
+    <t>First Dance, The</t>
+  </si>
+  <si>
+    <t>The First Dance</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>New Release</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>Tier</t>
   </si>
   <si>
-    <t>10.5240/1489-49A2-3956-4B2D-FE16-6</t>
-  </si>
-  <si>
-    <t>34530345-ABD-WE-2</t>
+    <t>10.5240/1489-49A2-3956-4B2D-FE16-8</t>
+  </si>
+  <si>
+    <t>34530345-ABD-WE-4</t>
   </si>
   <si>
     <t>FIRSTDANCE_2012</t>
@@ -753,7 +858,7 @@
     <t>PG</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Rockstar Films</t>
@@ -777,25 +882,25 @@
     <t>The First Dance</t>
   </si>
   <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>New Release</t>
+    <t>VOD</t>
+  </si>
+  <si>
+    <t>Early VOD</t>
   </si>
   <si>
     <t>HD</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>10.5240/1489-49A2-3956-4B2D-FE16-7</t>
-  </si>
-  <si>
-    <t>34530345-ABD-WE-3</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Early VOD</t>
+  </si>
+  <si>
+    <t>10.5240/1489-49A2-3956-4B2D-FE16-9</t>
+  </si>
+  <si>
+    <t>34530345-ABD-WE-5</t>
   </si>
   <si>
     <t>FIRSTDANCE_2012</t>
@@ -831,25 +936,25 @@
     <t>The First Dance</t>
   </si>
   <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>New Release</t>
+    <t>VOD</t>
+  </si>
+  <si>
+    <t>Early VOD</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>10.5240/1489-49A2-3956-4B2D-FE16-8</t>
-  </si>
-  <si>
-    <t>34530345-ABD-WE-4</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Early VOD</t>
+  </si>
+  <si>
+    <t>10.5240/1489-49A2-3956-4B2D-FE16-10</t>
+  </si>
+  <si>
+    <t>34530345-ABD-WE-6</t>
   </si>
   <si>
     <t>FIRSTDANCE_2012</t>
@@ -871,117 +976,6 @@
   </si>
   <si>
     <t>CA</t>
-  </si>
-  <si>
-    <t>Movie</t>
-  </si>
-  <si>
-    <t>Full Extract</t>
-  </si>
-  <si>
-    <t>First Dance, The</t>
-  </si>
-  <si>
-    <t>The First Dance</t>
-  </si>
-  <si>
-    <t>VOD</t>
-  </si>
-  <si>
-    <t>Early VOD</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Early VOD</t>
-  </si>
-  <si>
-    <t>10.5240/1489-49A2-3956-4B2D-FE16-9</t>
-  </si>
-  <si>
-    <t>34530345-ABD-WE-5</t>
-  </si>
-  <si>
-    <t>FIRSTDANCE_2012</t>
-  </si>
-  <si>
-    <t>CHVRS</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Rockstar Films</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Movie</t>
-  </si>
-  <si>
-    <t>Full Extract</t>
-  </si>
-  <si>
-    <t>First Dance, The</t>
-  </si>
-  <si>
-    <t>The First Dance</t>
-  </si>
-  <si>
-    <t>VOD</t>
-  </si>
-  <si>
-    <t>Early VOD</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Early VOD</t>
-  </si>
-  <si>
-    <t>10.5240/1489-49A2-3956-4B2D-FE16-10</t>
-  </si>
-  <si>
-    <t>34530345-ABD-WE-6</t>
-  </si>
-  <si>
-    <t>FIRSTDANCE_2012</t>
-  </si>
-  <si>
-    <t>CHVRS</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Rockstar Films</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Full Extract</t>
   </si>
   <si>
     <t>First Dance, The</t>
@@ -4225,6 +4219,9 @@
   <si>
     <t>AM5:AM31</t>
   </si>
+  <si>
+    <t>Fullz Extract</t>
+  </si>
 </sst>
 </file>
 
@@ -4232,7 +4229,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -5645,7 +5642,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6406,46 +6403,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR7" sqref="AR7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="27.796875" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" customWidth="1"/>
-    <col min="10" max="10" width="20.796875" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="13" width="15.3984375" customWidth="1"/>
-    <col min="14" max="22" width="17.19921875" customWidth="1"/>
+    <col min="12" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="22" width="17.1640625" customWidth="1"/>
     <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="17.19921875" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" customWidth="1"/>
     <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="17.19921875" customWidth="1"/>
-    <col min="27" max="27" width="20.3984375" customWidth="1"/>
-    <col min="28" max="28" width="17.19921875" customWidth="1"/>
+    <col min="26" max="26" width="17.1640625" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" customWidth="1"/>
     <col min="29" max="29" width="20" customWidth="1"/>
-    <col min="30" max="30" width="22.19921875" customWidth="1"/>
-    <col min="31" max="37" width="17.19921875" customWidth="1"/>
-    <col min="38" max="38" width="17.796875" customWidth="1"/>
-    <col min="39" max="41" width="17.19921875" customWidth="1"/>
-    <col min="42" max="42" width="16.19921875" customWidth="1"/>
-    <col min="43" max="43" width="20.3984375" customWidth="1"/>
-    <col min="44" max="44" width="28.59765625" customWidth="1"/>
-    <col min="45" max="253" width="17.19921875" customWidth="1"/>
+    <col min="30" max="30" width="22.1640625" customWidth="1"/>
+    <col min="31" max="37" width="17.1640625" customWidth="1"/>
+    <col min="38" max="38" width="17.83203125" customWidth="1"/>
+    <col min="39" max="41" width="17.1640625" customWidth="1"/>
+    <col min="42" max="42" width="16.1640625" customWidth="1"/>
+    <col min="43" max="43" width="20.33203125" customWidth="1"/>
+    <col min="44" max="44" width="28.6640625" customWidth="1"/>
+    <col min="45" max="253" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6454,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -6502,19 +6499,19 @@
         <v>12</v>
       </c>
       <c r="T1" s="48" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="V1" s="48" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>13</v>
@@ -6535,7 +6532,7 @@
         <v>17</v>
       </c>
       <c r="AE1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>18</v>
@@ -6565,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>20</v>
@@ -6887,7 +6884,7 @@
         <v>53</v>
       </c>
       <c r="AH2" s="43" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>54</v>
@@ -6914,10 +6911,10 @@
         <v>61</v>
       </c>
       <c r="AQ2" s="49" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="AR2" s="49" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
@@ -7134,7 +7131,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>63</v>
@@ -7152,7 +7149,7 @@
         <v>67</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>68</v>
@@ -7203,7 +7200,7 @@
         <v>83</v>
       </c>
       <c r="Y3" s="52" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Z3" s="56" t="s">
         <v>84</v>
@@ -7230,7 +7227,7 @@
         <v>91</v>
       </c>
       <c r="AH3" s="57" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="AI3" s="53" t="s">
         <v>92</v>
@@ -7242,7 +7239,7 @@
         <v>94</v>
       </c>
       <c r="AL3" s="51" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="AM3" s="52" t="s">
         <v>95</v>
@@ -7257,10 +7254,10 @@
         <v>98</v>
       </c>
       <c r="AQ3" s="52" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="AR3" s="52" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="AS3" s="16"/>
       <c r="AT3" s="16"/>
@@ -7495,7 +7492,7 @@
         <v>105</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>106</v>
@@ -7534,10 +7531,10 @@
         <v>117</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>118</v>
@@ -7573,7 +7570,7 @@
         <v>128</v>
       </c>
       <c r="AH4" s="45" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="AI4" s="12" t="s">
         <v>129</v>
@@ -7600,10 +7597,10 @@
         <v>136</v>
       </c>
       <c r="AQ4" s="50" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AR4" s="50" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="AS4" s="16"/>
       <c r="AT4" s="16"/>
@@ -7817,7 +7814,7 @@
     </row>
     <row r="5" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>138</v>
@@ -7826,7 +7823,7 @@
         <v>139</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>141</v>
@@ -7861,16 +7858,16 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="19"/>
       <c r="S5" s="74" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="T5" s="24" t="s">
         <v>148</v>
       </c>
       <c r="U5" s="62" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="V5" s="65" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>149</v>
@@ -7907,15 +7904,15 @@
         <v>4</v>
       </c>
       <c r="AM5" s="77" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AN5" s="76"/>
       <c r="AO5" s="19"/>
       <c r="AP5" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ5" s="59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AR5" s="22"/>
       <c r="AS5" s="7"/>
@@ -8139,7 +8136,7 @@
         <v>155</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>156</v>
@@ -8151,7 +8148,7 @@
         <v>158</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>159</v>
@@ -8180,10 +8177,10 @@
         <v>163</v>
       </c>
       <c r="U6" s="65" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="V6" s="65" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="W6" s="21" t="s">
         <v>164</v>
@@ -8221,7 +8218,7 @@
       </c>
       <c r="AM6" s="76"/>
       <c r="AN6" s="77" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AO6" s="19"/>
       <c r="AP6" s="71"/>
@@ -8488,7 +8485,7 @@
       </c>
       <c r="U7" s="62"/>
       <c r="V7" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W7" s="19" t="s">
         <v>181</v>
@@ -8525,16 +8522,16 @@
       </c>
       <c r="AL7" s="19"/>
       <c r="AM7" s="77" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="AN7" s="76"/>
       <c r="AO7" s="19"/>
       <c r="AP7" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ7" s="22"/>
       <c r="AR7" s="59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
@@ -8835,7 +8832,7 @@
       <c r="AN8" s="76"/>
       <c r="AO8" s="19"/>
       <c r="AP8" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ8" s="22"/>
       <c r="AR8" s="22"/>
@@ -9104,7 +9101,7 @@
         <v>196</v>
       </c>
       <c r="V9" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>214</v>
@@ -9144,7 +9141,7 @@
       <c r="AN9" s="76"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ9" s="22"/>
       <c r="AR9" s="22"/>
@@ -9371,24 +9368,24 @@
       <c r="D10" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="L10" s="23">
         <v>41408</v>
@@ -9397,7 +9394,7 @@
         <v>41422</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O10" s="20">
         <v>1</v>
@@ -9407,20 +9404,20 @@
       <c r="R10" s="19"/>
       <c r="S10" s="75"/>
       <c r="T10" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U10" s="62" t="s">
         <v>196</v>
       </c>
       <c r="V10" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z10" s="26"/>
       <c r="AA10" s="21"/>
@@ -9435,16 +9432,16 @@
       </c>
       <c r="AE10" s="28"/>
       <c r="AF10" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG10" s="28" t="s">
         <v>233</v>
-      </c>
-      <c r="AG10" s="28" t="s">
-        <v>234</v>
       </c>
       <c r="AH10" s="42"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL10" s="19">
         <v>4</v>
@@ -9453,7 +9450,7 @@
       <c r="AN10" s="76"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ10" s="22"/>
       <c r="AR10" s="22"/>
@@ -9669,44 +9666,44 @@
     </row>
     <row r="11" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>244</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>245</v>
       </c>
       <c r="L11" s="23">
         <v>41422</v>
       </c>
       <c r="M11" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="O11" s="20">
         <v>2</v>
@@ -9716,20 +9713,20 @@
       <c r="R11" s="19"/>
       <c r="S11" s="75"/>
       <c r="T11" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U11" s="62" t="s">
         <v>196</v>
       </c>
       <c r="V11" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="W11" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="W11" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z11" s="26"/>
       <c r="AA11" s="21"/>
@@ -9744,23 +9741,23 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG11" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="AG11" s="28" t="s">
-        <v>252</v>
       </c>
       <c r="AH11" s="42"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="76"/>
       <c r="AN11" s="76"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ11" s="22"/>
       <c r="AR11" s="22"/>
@@ -9978,44 +9975,44 @@
     </row>
     <row r="12" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="K12" s="18" t="s">
         <v>262</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>263</v>
       </c>
       <c r="L12" s="23">
         <v>41422</v>
       </c>
       <c r="M12" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>265</v>
       </c>
       <c r="O12" s="20">
         <v>2</v>
@@ -10025,20 +10022,20 @@
       <c r="R12" s="19"/>
       <c r="S12" s="75"/>
       <c r="T12" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U12" s="62" t="s">
         <v>196</v>
       </c>
       <c r="V12" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z12" s="26"/>
       <c r="AA12" s="21"/>
@@ -10053,23 +10050,23 @@
       </c>
       <c r="AE12" s="28"/>
       <c r="AF12" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG12" s="28" t="s">
         <v>269</v>
-      </c>
-      <c r="AG12" s="28" t="s">
-        <v>270</v>
       </c>
       <c r="AH12" s="42"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL12" s="19"/>
       <c r="AM12" s="76"/>
       <c r="AN12" s="76"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ12" s="22"/>
       <c r="AR12" s="22"/>
@@ -10287,35 +10284,35 @@
     </row>
     <row r="13" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>278</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="K13" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="L13" s="23">
         <v>41408</v>
@@ -10324,30 +10321,30 @@
         <v>41422</v>
       </c>
       <c r="N13" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="O13" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>283</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="19"/>
       <c r="S13" s="75"/>
       <c r="T13" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U13" s="62" t="s">
         <v>196</v>
       </c>
       <c r="V13" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z13" s="26"/>
       <c r="AA13" s="21"/>
@@ -10362,10 +10359,10 @@
       </c>
       <c r="AE13" s="28"/>
       <c r="AF13" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="AG13" s="28" t="s">
         <v>287</v>
-      </c>
-      <c r="AG13" s="28" t="s">
-        <v>288</v>
       </c>
       <c r="AH13" s="42"/>
       <c r="AI13" s="21">
@@ -10375,14 +10372,14 @@
         <v>72</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="76"/>
       <c r="AN13" s="76"/>
       <c r="AO13" s="19"/>
       <c r="AP13" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ13" s="22"/>
       <c r="AR13" s="22"/>
@@ -10600,35 +10597,35 @@
     </row>
     <row r="14" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="K14" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="L14" s="23">
         <v>41408</v>
@@ -10637,30 +10634,30 @@
         <v>41422</v>
       </c>
       <c r="N14" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="19"/>
       <c r="S14" s="75"/>
       <c r="T14" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U14" s="29" t="s">
         <v>196</v>
       </c>
       <c r="V14" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W14" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X14" s="19"/>
       <c r="Y14" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z14" s="26"/>
       <c r="AA14" s="21"/>
@@ -10675,10 +10672,10 @@
       </c>
       <c r="AE14" s="28"/>
       <c r="AF14" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG14" s="28" t="s">
         <v>305</v>
-      </c>
-      <c r="AG14" s="28" t="s">
-        <v>306</v>
       </c>
       <c r="AH14" s="42"/>
       <c r="AI14" s="21">
@@ -10688,14 +10685,14 @@
         <v>72</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL14" s="19"/>
       <c r="AM14" s="76"/>
       <c r="AN14" s="76"/>
       <c r="AO14" s="19"/>
       <c r="AP14" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ14" s="22"/>
       <c r="AR14" s="22"/>
@@ -10911,35 +10908,35 @@
     </row>
     <row r="15" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>313</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>314</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>316</v>
       </c>
       <c r="L15" s="23">
         <v>41422</v>
@@ -10948,30 +10945,30 @@
         <v>41537</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="19"/>
       <c r="S15" s="75"/>
       <c r="T15" s="29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="U15" s="29" t="s">
         <v>196</v>
       </c>
       <c r="V15" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W15" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="X15" s="19"/>
       <c r="Y15" s="30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z15" s="26"/>
       <c r="AA15" s="21"/>
@@ -10986,10 +10983,10 @@
       </c>
       <c r="AE15" s="28"/>
       <c r="AF15" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG15" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AH15" s="42"/>
       <c r="AI15" s="21">
@@ -10999,14 +10996,14 @@
         <v>72</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AL15" s="19"/>
       <c r="AM15" s="76"/>
       <c r="AN15" s="76"/>
       <c r="AO15" s="19"/>
       <c r="AP15" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ15" s="22"/>
       <c r="AR15" s="22"/>
@@ -11222,35 +11219,35 @@
     </row>
     <row r="16" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="D16" s="38" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="G16" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>330</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>333</v>
       </c>
       <c r="L16" s="23">
         <v>41422</v>
@@ -11259,30 +11256,30 @@
         <v>41537</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="19"/>
       <c r="S16" s="75"/>
       <c r="T16" s="29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="U16" s="29" t="s">
         <v>196</v>
       </c>
       <c r="V16" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W16" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="X16" s="19"/>
       <c r="Y16" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Z16" s="26"/>
       <c r="AA16" s="21"/>
@@ -11297,10 +11294,10 @@
       </c>
       <c r="AE16" s="28"/>
       <c r="AF16" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AG16" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AH16" s="42"/>
       <c r="AI16" s="21">
@@ -11310,14 +11307,14 @@
         <v>72</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" s="76"/>
       <c r="AN16" s="76"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ16" s="22"/>
       <c r="AR16" s="22"/>
@@ -11533,37 +11530,37 @@
     </row>
     <row r="17" spans="1:253" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="G17" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="H17" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="J17" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="H17" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I17" s="18" t="s">
+      <c r="K17" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>351</v>
       </c>
       <c r="L17" s="23">
         <v>41408</v>
@@ -11572,19 +11569,19 @@
         <v>41422</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O17" s="20">
         <v>1</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R17" s="19"/>
       <c r="S17" s="75"/>
       <c r="T17" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="U17" s="29" t="s">
         <v>196</v>
@@ -11593,7 +11590,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Z17" s="28"/>
       <c r="AA17" s="21"/>
@@ -11610,23 +11607,23 @@
         <v>185</v>
       </c>
       <c r="AF17" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG17" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AH17" s="42"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="76"/>
       <c r="AN17" s="76"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ17" s="22"/>
       <c r="AR17" s="22"/>
@@ -11842,37 +11839,37 @@
     </row>
     <row r="18" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="G18" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="H18" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="J18" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="H18" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I18" s="18" t="s">
+      <c r="K18" s="18" t="s">
         <v>366</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>368</v>
       </c>
       <c r="L18" s="23">
         <v>41408</v>
@@ -11881,19 +11878,19 @@
         <v>41422</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O18" s="20">
         <v>1</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="75"/>
       <c r="T18" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U18" s="29" t="s">
         <v>196</v>
@@ -11902,7 +11899,7 @@
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
       <c r="Y18" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Z18" s="28"/>
       <c r="AA18" s="21"/>
@@ -11919,23 +11916,23 @@
         <v>185</v>
       </c>
       <c r="AF18" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG18" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AH18" s="42"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AL18" s="19"/>
       <c r="AM18" s="76"/>
       <c r="AN18" s="76"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ18" s="22"/>
       <c r="AR18" s="22"/>
@@ -12151,58 +12148,58 @@
     </row>
     <row r="19" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="G19" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="H19" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="J19" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="H19" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I19" s="18" t="s">
+      <c r="K19" s="18" t="s">
         <v>383</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>385</v>
       </c>
       <c r="L19" s="23">
         <v>41422</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O19" s="20">
         <v>2</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="75"/>
       <c r="T19" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U19" s="29" t="s">
         <v>196</v>
@@ -12211,7 +12208,7 @@
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Z19" s="28"/>
       <c r="AA19" s="21"/>
@@ -12228,23 +12225,23 @@
         <v>185</v>
       </c>
       <c r="AF19" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG19" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AH19" s="42"/>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
       <c r="AK19" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AL19" s="19"/>
       <c r="AM19" s="76"/>
       <c r="AN19" s="76"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ19" s="22"/>
       <c r="AR19" s="22"/>
@@ -12460,58 +12457,58 @@
     </row>
     <row r="20" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="G20" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="H20" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="J20" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="H20" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I20" s="18" t="s">
+      <c r="K20" s="18" t="s">
         <v>401</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>403</v>
       </c>
       <c r="L20" s="23">
         <v>41422</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O20" s="20">
         <v>2</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="75"/>
       <c r="T20" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U20" s="29" t="s">
         <v>196</v>
@@ -12520,7 +12517,7 @@
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Z20" s="28"/>
       <c r="AA20" s="21"/>
@@ -12537,23 +12534,23 @@
         <v>185</v>
       </c>
       <c r="AF20" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG20" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AH20" s="42"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
       <c r="AK20" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AL20" s="19"/>
       <c r="AM20" s="76"/>
       <c r="AN20" s="76"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ20" s="22"/>
       <c r="AR20" s="22"/>
@@ -12769,37 +12766,37 @@
     </row>
     <row r="21" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="G21" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="H21" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="J21" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="H21" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I21" s="18" t="s">
+      <c r="K21" s="18" t="s">
         <v>419</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>421</v>
       </c>
       <c r="L21" s="23">
         <v>41422</v>
@@ -12808,10 +12805,10 @@
         <v>41537</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="29" t="s">
@@ -12820,7 +12817,7 @@
       <c r="R21" s="19"/>
       <c r="S21" s="75"/>
       <c r="T21" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U21" s="29" t="s">
         <v>196</v>
@@ -12829,7 +12826,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
       <c r="Y21" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z21" s="28"/>
       <c r="AA21" s="21"/>
@@ -12846,10 +12843,10 @@
         <v>185</v>
       </c>
       <c r="AF21" s="28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG21" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AH21" s="42"/>
       <c r="AI21" s="21">
@@ -12859,14 +12856,14 @@
         <v>72</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AL21" s="19"/>
       <c r="AM21" s="76"/>
       <c r="AN21" s="76"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ21" s="22"/>
       <c r="AR21" s="22"/>
@@ -13082,37 +13079,37 @@
     </row>
     <row r="22" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="H22" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="J22" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="H22" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I22" s="18" t="s">
+      <c r="K22" s="18" t="s">
         <v>436</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>438</v>
       </c>
       <c r="L22" s="23">
         <v>41422</v>
@@ -13121,10 +13118,10 @@
         <v>41537</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="29" t="s">
@@ -13133,7 +13130,7 @@
       <c r="R22" s="19"/>
       <c r="S22" s="75"/>
       <c r="T22" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U22" s="29" t="s">
         <v>196</v>
@@ -13142,7 +13139,7 @@
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
       <c r="Y22" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Z22" s="28"/>
       <c r="AA22" s="21"/>
@@ -13159,10 +13156,10 @@
         <v>185</v>
       </c>
       <c r="AF22" s="28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG22" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AH22" s="42"/>
       <c r="AI22" s="21">
@@ -13172,14 +13169,14 @@
         <v>72</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AL22" s="19"/>
       <c r="AM22" s="76"/>
       <c r="AN22" s="76"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ22" s="22"/>
       <c r="AR22" s="22"/>
@@ -13395,46 +13392,46 @@
     </row>
     <row r="23" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="G23" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="H23" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="J23" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="H23" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I23" s="18" t="s">
+      <c r="K23" s="18" t="s">
         <v>453</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>455</v>
       </c>
       <c r="L23" s="23">
         <v>41422</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O23" s="20">
         <v>10</v>
@@ -13444,16 +13441,16 @@
       <c r="R23" s="19"/>
       <c r="S23" s="75"/>
       <c r="T23" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U23" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V23" s="29"/>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
       <c r="Y23" s="30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z23" s="28"/>
       <c r="AA23" s="21"/>
@@ -13473,7 +13470,7 @@
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
       <c r="AK23" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AL23" s="19">
         <v>1</v>
@@ -13482,7 +13479,7 @@
       <c r="AN23" s="76"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ23" s="22"/>
       <c r="AR23" s="22"/>
@@ -13698,46 +13695,46 @@
     </row>
     <row r="24" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="H24" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="J24" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="H24" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I24" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>468</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>470</v>
       </c>
       <c r="L24" s="23">
         <v>41422</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O24" s="20">
         <v>10</v>
@@ -13747,16 +13744,16 @@
       <c r="R24" s="19"/>
       <c r="S24" s="75"/>
       <c r="T24" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U24" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V24" s="29"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
       <c r="Y24" s="30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Z24" s="28"/>
       <c r="AA24" s="21"/>
@@ -13776,7 +13773,7 @@
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
       <c r="AK24" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AL24" s="19">
         <v>2</v>
@@ -13785,7 +13782,7 @@
       <c r="AN24" s="76"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ24" s="22"/>
       <c r="AR24" s="22"/>
@@ -14001,37 +13998,37 @@
     </row>
     <row r="25" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="F25" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="H25" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="J25" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="H25" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I25" s="18" t="s">
+      <c r="K25" s="18" t="s">
         <v>483</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>485</v>
       </c>
       <c r="L25" s="23">
         <v>41422</v>
@@ -14040,26 +14037,26 @@
         <v>41537</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="19"/>
       <c r="S25" s="75"/>
       <c r="T25" s="29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="U25" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V25" s="29"/>
       <c r="W25" s="33"/>
       <c r="X25" s="19"/>
       <c r="Y25" s="30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Z25" s="28"/>
       <c r="AA25" s="21"/>
@@ -14083,7 +14080,7 @@
         <v>24</v>
       </c>
       <c r="AK25" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AL25" s="19">
         <v>3</v>
@@ -14092,7 +14089,7 @@
       <c r="AN25" s="76"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ25" s="22"/>
       <c r="AR25" s="22"/>
@@ -14308,37 +14305,37 @@
     </row>
     <row r="26" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="G26" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="H26" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="J26" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="H26" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I26" s="18" t="s">
+      <c r="K26" s="18" t="s">
         <v>498</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>500</v>
       </c>
       <c r="L26" s="23">
         <v>41422</v>
@@ -14347,26 +14344,26 @@
         <v>41537</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="19"/>
       <c r="S26" s="75"/>
       <c r="T26" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="U26" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V26" s="29"/>
       <c r="W26" s="33"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Z26" s="28"/>
       <c r="AA26" s="21"/>
@@ -14390,7 +14387,7 @@
         <v>24</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AL26" s="19">
         <v>4</v>
@@ -14399,7 +14396,7 @@
       <c r="AN26" s="76"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ26" s="22"/>
       <c r="AR26" s="22"/>
@@ -14615,46 +14612,46 @@
     </row>
     <row r="27" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="G27" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="H27" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="J27" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I27" s="18" t="s">
+      <c r="K27" s="18" t="s">
         <v>513</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>515</v>
       </c>
       <c r="L27" s="23">
         <v>41422</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O27" s="20">
         <v>10</v>
@@ -14664,16 +14661,16 @@
       <c r="R27" s="19"/>
       <c r="S27" s="75"/>
       <c r="T27" s="29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="U27" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V27" s="29"/>
       <c r="W27" s="19"/>
       <c r="X27" s="19"/>
       <c r="Y27" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Z27" s="28"/>
       <c r="AA27" s="21"/>
@@ -14693,7 +14690,7 @@
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AL27" s="19">
         <v>5</v>
@@ -14702,7 +14699,7 @@
       <c r="AN27" s="76"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ27" s="22"/>
       <c r="AR27" s="22"/>
@@ -14918,46 +14915,46 @@
     </row>
     <row r="28" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="G28" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="H28" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="J28" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="H28" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I28" s="18" t="s">
+      <c r="K28" s="18" t="s">
         <v>528</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>530</v>
       </c>
       <c r="L28" s="23">
         <v>41422</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O28" s="20">
         <v>10</v>
@@ -14967,16 +14964,16 @@
       <c r="R28" s="19"/>
       <c r="S28" s="75"/>
       <c r="T28" s="29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="U28" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V28" s="29"/>
       <c r="W28" s="19"/>
       <c r="X28" s="19"/>
       <c r="Y28" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Z28" s="28"/>
       <c r="AA28" s="21"/>
@@ -14996,7 +14993,7 @@
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AL28" s="19">
         <v>6</v>
@@ -15005,7 +15002,7 @@
       <c r="AN28" s="76"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ28" s="22"/>
       <c r="AR28" s="22"/>
@@ -15221,37 +15218,37 @@
     </row>
     <row r="29" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="G29" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="H29" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="J29" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="H29" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I29" s="18" t="s">
+      <c r="K29" s="18" t="s">
         <v>543</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>545</v>
       </c>
       <c r="L29" s="23">
         <v>41422</v>
@@ -15260,26 +15257,26 @@
         <v>41537</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="19"/>
       <c r="S29" s="75"/>
       <c r="T29" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="U29" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V29" s="29"/>
       <c r="W29" s="33"/>
       <c r="X29" s="19"/>
       <c r="Y29" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Z29" s="28"/>
       <c r="AA29" s="21"/>
@@ -15303,7 +15300,7 @@
         <v>24</v>
       </c>
       <c r="AK29" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AL29" s="19">
         <v>6</v>
@@ -15312,7 +15309,7 @@
       <c r="AN29" s="76"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ29" s="22"/>
       <c r="AR29" s="22"/>
@@ -15528,37 +15525,37 @@
     </row>
     <row r="30" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="E30" s="38" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="G30" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="E30" s="38" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="H30" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="J30" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="H30" s="59" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I30" s="18" t="s">
+      <c r="K30" s="18" t="s">
         <v>557</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>559</v>
       </c>
       <c r="L30" s="23">
         <v>41422</v>
@@ -15567,26 +15564,26 @@
         <v>41537</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="19"/>
       <c r="S30" s="75"/>
       <c r="T30" s="29" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="U30" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V30" s="29"/>
       <c r="W30" s="33"/>
       <c r="X30" s="19"/>
       <c r="Y30" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Z30" s="28"/>
       <c r="AA30" s="21"/>
@@ -15612,7 +15609,7 @@
         <v>24</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AL30" s="19">
         <v>1</v>
@@ -15621,7 +15618,7 @@
       <c r="AN30" s="76"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ30" s="22"/>
       <c r="AR30" s="22"/>
@@ -15840,25 +15837,25 @@
         <v>137</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E31" s="38" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G31" s="60" t="s">
         <v>1282</v>
       </c>
-      <c r="F31" s="38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>1284</v>
-      </c>
       <c r="H31" s="59" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I31" s="38" t="s">
         <v>144</v>
@@ -15874,26 +15871,26 @@
         <v>36526</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="19"/>
       <c r="S31" s="75"/>
       <c r="T31" s="62" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="U31" s="62" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V31" s="29"/>
       <c r="W31" s="33"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="61" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Z31" s="28"/>
       <c r="AA31" s="21"/>
@@ -15907,7 +15904,7 @@
         <v>28831</v>
       </c>
       <c r="AE31" s="68" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="AF31" s="28"/>
       <c r="AG31" s="28"/>
@@ -15922,7 +15919,7 @@
       <c r="AN31" s="76"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="71" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AQ31" s="22"/>
       <c r="AR31" s="22"/>
@@ -16167,121 +16164,121 @@
       <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="27.19921875" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
-    <col min="8" max="9" width="14.19921875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="27.796875" customWidth="1"/>
-    <col min="13" max="13" width="21.19921875" customWidth="1"/>
-    <col min="14" max="14" width="24.59765625" customWidth="1"/>
-    <col min="15" max="15" width="12.796875" customWidth="1"/>
-    <col min="16" max="16" width="14.19921875" customWidth="1"/>
-    <col min="17" max="19" width="20.19921875" customWidth="1"/>
-    <col min="20" max="20" width="22.3984375" customWidth="1"/>
-    <col min="21" max="21" width="14.19921875" customWidth="1"/>
-    <col min="22" max="22" width="22.3984375" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" customWidth="1"/>
+    <col min="17" max="19" width="20.1640625" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="25" width="15.3984375" customWidth="1"/>
-    <col min="26" max="26" width="21.59765625" customWidth="1"/>
-    <col min="27" max="33" width="17.19921875" customWidth="1"/>
-    <col min="34" max="34" width="19.796875" customWidth="1"/>
-    <col min="35" max="37" width="17.19921875" customWidth="1"/>
+    <col min="24" max="25" width="15.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" customWidth="1"/>
+    <col min="27" max="33" width="17.1640625" customWidth="1"/>
+    <col min="34" max="34" width="19.83203125" customWidth="1"/>
+    <col min="35" max="37" width="17.1640625" customWidth="1"/>
     <col min="38" max="38" width="22" customWidth="1"/>
-    <col min="39" max="41" width="17.19921875" customWidth="1"/>
-    <col min="42" max="42" width="19.796875" customWidth="1"/>
-    <col min="43" max="43" width="22.3984375" customWidth="1"/>
-    <col min="44" max="55" width="17.19921875" customWidth="1"/>
-    <col min="56" max="56" width="20.19921875" customWidth="1"/>
-    <col min="57" max="57" width="20.3984375" customWidth="1"/>
-    <col min="58" max="58" width="28.59765625" customWidth="1"/>
+    <col min="39" max="41" width="17.1640625" customWidth="1"/>
+    <col min="42" max="42" width="19.83203125" customWidth="1"/>
+    <col min="43" max="43" width="22.33203125" customWidth="1"/>
+    <col min="44" max="55" width="17.1640625" customWidth="1"/>
+    <col min="56" max="56" width="20.1640625" customWidth="1"/>
+    <col min="57" max="57" width="20.33203125" customWidth="1"/>
+    <col min="58" max="58" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
@@ -16293,55 +16290,55 @@
         <v>0</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="AG1" s="47" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AH1" s="47" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AI1" s="47" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AJ1" s="47" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AK1" s="47" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AL1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="AM1" s="47" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AN1" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="AQ1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AR1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AU1" s="4" t="s">
         <v>3</v>
@@ -16365,13 +16362,13 @@
         <v>3</v>
       </c>
       <c r="BB1" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="BC1" s="41" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BE1" s="34" t="s">
         <v>0</v>
@@ -16382,553 +16379,553 @@
     </row>
     <row r="2" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>1289</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="V2" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="W2" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="AN2" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="AO2" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="T2" s="10" t="s">
-        <v>1291</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="11" t="s">
         <v>635</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>637</v>
       </c>
       <c r="AQ2" s="43" t="s">
         <v>50</v>
       </c>
       <c r="AR2" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="AT2" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AU2" s="43" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AV2" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="AT2" s="11" t="s">
+      <c r="AW2" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="AU2" s="43" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AX2" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="BB2" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="BC2" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BD2" s="9" t="s">
-        <v>649</v>
-      </c>
       <c r="BE2" s="49" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="BF2" s="49" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>650</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C3" s="53" t="s">
+      <c r="E3" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="F3" s="54" t="s">
         <v>652</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="G3" s="54" t="s">
         <v>653</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="H3" s="54" t="s">
         <v>654</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="I3" s="51" t="s">
         <v>655</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="J3" s="51" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K3" s="54" t="s">
         <v>656</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="L3" s="54" t="s">
         <v>657</v>
       </c>
-      <c r="J3" s="51" t="s">
-        <v>1287</v>
-      </c>
-      <c r="K3" s="54" t="s">
+      <c r="M3" s="54" t="s">
         <v>658</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="N3" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="O3" s="54" t="s">
         <v>660</v>
       </c>
-      <c r="N3" s="54" t="s">
+      <c r="P3" s="54" t="s">
         <v>661</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="Q3" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>681</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>1296</v>
+      </c>
+      <c r="U3" s="51" t="s">
         <v>662</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="V3" s="53" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="54" t="s">
-        <v>682</v>
-      </c>
-      <c r="R3" s="54" t="s">
-        <v>683</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>684</v>
-      </c>
-      <c r="T3" s="51" t="s">
-        <v>1298</v>
-      </c>
-      <c r="U3" s="51" t="s">
+      <c r="W3" s="53" t="s">
         <v>664</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="X3" s="55" t="s">
         <v>665</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="Y3" s="57" t="s">
         <v>666</v>
       </c>
-      <c r="X3" s="55" t="s">
+      <c r="Z3" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="AA3" s="55" t="s">
         <v>668</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="AB3" s="55" t="s">
         <v>669</v>
-      </c>
-      <c r="AA3" s="55" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB3" s="55" t="s">
-        <v>671</v>
       </c>
       <c r="AC3" s="52" t="s">
         <v>75</v>
       </c>
       <c r="AD3" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE3" s="53" t="s">
+        <v>671</v>
+      </c>
+      <c r="AF3" s="53" t="s">
         <v>672</v>
       </c>
-      <c r="AE3" s="53" t="s">
+      <c r="AG3" s="54" t="s">
         <v>673</v>
       </c>
-      <c r="AF3" s="53" t="s">
+      <c r="AH3" s="54" t="s">
         <v>674</v>
       </c>
-      <c r="AG3" s="54" t="s">
+      <c r="AI3" s="54" t="s">
         <v>675</v>
       </c>
-      <c r="AH3" s="54" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>676</v>
       </c>
-      <c r="AI3" s="54" t="s">
+      <c r="AK3" s="54" t="s">
         <v>677</v>
       </c>
-      <c r="AJ3" s="54" t="s">
+      <c r="AL3" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="AK3" s="54" t="s">
+      <c r="AM3" s="53" t="s">
         <v>679</v>
       </c>
-      <c r="AL3" s="53" t="s">
-        <v>680</v>
-      </c>
-      <c r="AM3" s="53" t="s">
-        <v>681</v>
-      </c>
       <c r="AN3" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="AO3" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="AP3" s="56" t="s">
         <v>685</v>
-      </c>
-      <c r="AO3" s="56" t="s">
-        <v>686</v>
-      </c>
-      <c r="AP3" s="56" t="s">
-        <v>687</v>
       </c>
       <c r="AQ3" s="58" t="s">
         <v>88</v>
       </c>
       <c r="AR3" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="AS3" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT3" s="55" t="s">
         <v>688</v>
       </c>
-      <c r="AS3" s="55" t="s">
+      <c r="AU3" s="57" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AV3" s="53" t="s">
         <v>689</v>
       </c>
-      <c r="AT3" s="55" t="s">
+      <c r="AW3" s="53" t="s">
         <v>690</v>
       </c>
-      <c r="AU3" s="57" t="s">
-        <v>1296</v>
-      </c>
-      <c r="AV3" s="53" t="s">
+      <c r="AX3" s="54" t="s">
         <v>691</v>
       </c>
-      <c r="AW3" s="53" t="s">
+      <c r="AY3" s="54" t="s">
         <v>692</v>
       </c>
-      <c r="AX3" s="54" t="s">
+      <c r="AZ3" s="51" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BA3" s="53" t="s">
         <v>693</v>
       </c>
-      <c r="AY3" s="54" t="s">
+      <c r="BB3" s="53" t="s">
         <v>694</v>
       </c>
-      <c r="AZ3" s="51" t="s">
-        <v>1289</v>
-      </c>
-      <c r="BA3" s="53" t="s">
+      <c r="BC3" s="53" t="s">
         <v>695</v>
       </c>
-      <c r="BB3" s="53" t="s">
+      <c r="BD3" s="53" t="s">
         <v>696</v>
       </c>
-      <c r="BC3" s="53" t="s">
-        <v>697</v>
-      </c>
-      <c r="BD3" s="53" t="s">
-        <v>698</v>
-      </c>
       <c r="BE3" s="52" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="BF3" s="52" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="J4" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>1297</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="V4" s="39" t="s">
+        <v>1300</v>
+      </c>
+      <c r="W4" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="R4" s="13" t="s">
+      <c r="X4" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="AI4" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="AN4" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="AO4" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="T4" s="39" t="s">
-        <v>1299</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="V4" s="39" t="s">
-        <v>1302</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>720</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="AI4" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="AJ4" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="AK4" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="AN4" s="14" t="s">
+      <c r="AP4" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AQ4" s="46" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AR4" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="AP4" s="15" t="s">
+      <c r="AS4" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="AQ4" s="46" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AR4" s="14" t="s">
+      <c r="AT4" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="AS4" s="15" t="s">
+      <c r="AU4" s="45" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AV4" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="AT4" s="14" t="s">
+      <c r="AW4" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="AU4" s="45" t="s">
-        <v>1297</v>
-      </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AX4" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
         <v>742</v>
-      </c>
-      <c r="AX4" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>744</v>
       </c>
       <c r="AZ4" s="39" t="s">
         <v>132</v>
       </c>
       <c r="BA4" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="BC4" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="BB4" s="12" t="s">
+      <c r="BD4" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="BC4" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="BD4" s="13" t="s">
-        <v>748</v>
-      </c>
       <c r="BE4" s="50" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="BF4" s="50" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="G5" s="21" t="s">
         <v>753</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>754</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>755</v>
       </c>
       <c r="H5" s="25">
         <v>1</v>
@@ -16944,52 +16941,52 @@
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="25" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="S5" s="36"/>
       <c r="T5" s="63"/>
       <c r="U5" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="W5" s="18" t="s">
         <v>756</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>757</v>
-      </c>
-      <c r="W5" s="18" t="s">
-        <v>758</v>
       </c>
       <c r="X5" s="23">
         <v>41408</v>
       </c>
       <c r="Y5" s="32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="Z5" s="19"/>
       <c r="AA5" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AB5" s="20">
         <v>7.99</v>
       </c>
       <c r="AC5" s="19"/>
       <c r="AD5" s="66" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AE5" s="19"/>
       <c r="AF5" s="19"/>
       <c r="AG5" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AH5" s="29" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AI5" s="36"/>
       <c r="AJ5" s="36"/>
       <c r="AK5" s="36"/>
       <c r="AL5" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="26"/>
@@ -17002,10 +16999,10 @@
         <v>185</v>
       </c>
       <c r="AS5" s="26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AT5" s="26" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AU5" s="44"/>
       <c r="AV5" s="19"/>
@@ -17022,25 +17019,25 @@
     </row>
     <row r="6" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="F6" s="25" t="s">
         <v>772</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="G6" s="21" t="s">
         <v>773</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>775</v>
       </c>
       <c r="H6" s="25">
         <v>1</v>
@@ -17056,52 +17053,52 @@
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="25" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="S6" s="36"/>
       <c r="T6" s="21"/>
       <c r="U6" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="W6" s="20" t="s">
         <v>776</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>778</v>
       </c>
       <c r="X6" s="23">
         <v>41408</v>
       </c>
       <c r="Y6" s="32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="Z6" s="19"/>
       <c r="AA6" s="20" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AB6" s="20">
         <v>7.99</v>
       </c>
       <c r="AC6" s="19"/>
       <c r="AD6" s="66" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AH6" s="29" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AI6" s="36"/>
       <c r="AJ6" s="36"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AM6" s="19"/>
       <c r="AN6" s="26"/>
@@ -17114,10 +17111,10 @@
         <v>185</v>
       </c>
       <c r="AS6" s="26" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AT6" s="26" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AU6" s="44"/>
       <c r="AV6" s="19"/>
@@ -17134,25 +17131,25 @@
     </row>
     <row r="7" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="21" t="s">
         <v>792</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>794</v>
       </c>
       <c r="H7" s="25">
         <v>1</v>
@@ -17162,10 +17159,10 @@
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="21" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -17174,48 +17171,48 @@
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="S7" s="25" t="s">
         <v>805</v>
       </c>
-      <c r="R7" s="25" t="s">
-        <v>806</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>807</v>
-      </c>
       <c r="T7" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U7" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="W7" s="18" t="s">
         <v>797</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>798</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>799</v>
       </c>
       <c r="X7" s="23">
         <v>41408</v>
       </c>
       <c r="Y7" s="32" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="Z7" s="19"/>
       <c r="AA7" s="20" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AB7" s="20" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AC7" s="19"/>
       <c r="AD7" s="65"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="24" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AH7" s="29" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AI7" s="29"/>
       <c r="AJ7" s="29"/>
@@ -17230,10 +17227,10 @@
       <c r="AQ7" s="44"/>
       <c r="AR7" s="28"/>
       <c r="AS7" s="26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AT7" s="26" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AU7" s="44"/>
       <c r="AV7" s="19"/>
@@ -17249,32 +17246,32 @@
       <c r="BB7" s="19"/>
       <c r="BC7" s="19"/>
       <c r="BD7" s="37" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="BE7" s="22"/>
       <c r="BF7" s="22"/>
     </row>
     <row r="8" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>810</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="F8" s="25" t="s">
         <v>814</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="G8" s="21" t="s">
         <v>815</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>817</v>
       </c>
       <c r="H8" s="25">
         <v>1</v>
@@ -17284,10 +17281,10 @@
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="21" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -17296,48 +17293,48 @@
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="S8" s="25" t="s">
         <v>828</v>
       </c>
-      <c r="R8" s="25" t="s">
-        <v>829</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>830</v>
-      </c>
       <c r="T8" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U8" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="W8" s="20" t="s">
         <v>820</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>821</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>822</v>
       </c>
       <c r="X8" s="23">
         <v>41408</v>
       </c>
       <c r="Y8" s="32" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="Z8" s="19"/>
       <c r="AA8" s="20" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AB8" s="20" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AC8" s="19"/>
       <c r="AD8" s="65"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AH8" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AI8" s="29"/>
       <c r="AJ8" s="29"/>
@@ -17352,10 +17349,10 @@
       <c r="AQ8" s="44"/>
       <c r="AR8" s="28"/>
       <c r="AS8" s="26" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AU8" s="44"/>
       <c r="AV8" s="19"/>
@@ -17371,32 +17368,32 @@
       <c r="BB8" s="19"/>
       <c r="BC8" s="19"/>
       <c r="BD8" s="37" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="BE8" s="22"/>
       <c r="BF8" s="22"/>
     </row>
     <row r="9" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>833</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="F9" s="25" t="s">
         <v>837</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="G9" s="21" t="s">
         <v>838</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>840</v>
       </c>
       <c r="H9" s="25">
         <v>1</v>
@@ -17406,10 +17403,10 @@
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
@@ -17418,35 +17415,35 @@
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="S9" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="R9" s="25" t="s">
-        <v>855</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>856</v>
-      </c>
       <c r="T9" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U9" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>843</v>
-      </c>
-      <c r="V9" s="21" t="s">
-        <v>844</v>
-      </c>
-      <c r="W9" s="18" t="s">
-        <v>845</v>
       </c>
       <c r="X9" s="23">
         <v>41408</v>
       </c>
       <c r="Y9" s="32" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="Z9" s="19"/>
       <c r="AA9" s="18" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AB9" s="20">
         <v>2</v>
@@ -17456,22 +17453,22 @@
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="AH9" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="AI9" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="AH9" s="29" t="s">
+      <c r="AJ9" s="24" t="s">
         <v>849</v>
       </c>
-      <c r="AI9" s="29" t="s">
+      <c r="AK9" s="24" t="s">
         <v>850</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AL9" s="19" t="s">
         <v>851</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="AL9" s="19" t="s">
-        <v>853</v>
       </c>
       <c r="AM9" s="19"/>
       <c r="AN9" s="26"/>
@@ -17484,49 +17481,49 @@
       <c r="AQ9" s="44"/>
       <c r="AR9" s="28"/>
       <c r="AS9" s="26" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AT9" s="26" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AU9" s="44"/>
       <c r="AV9" s="19"/>
       <c r="AW9" s="19"/>
       <c r="AX9" s="19"/>
       <c r="AY9" s="18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AZ9" s="19"/>
       <c r="BA9" s="19"/>
       <c r="BB9" s="19"/>
       <c r="BC9" s="19"/>
       <c r="BD9" s="37" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="BE9" s="22"/>
       <c r="BF9" s="22"/>
     </row>
     <row r="10" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>861</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="F10" s="25" t="s">
         <v>864</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>865</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>866</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>867</v>
       </c>
       <c r="H10" s="25">
         <v>1</v>
@@ -17536,10 +17533,10 @@
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="21" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
@@ -17548,35 +17545,35 @@
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="S10" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="R10" s="25" t="s">
-        <v>882</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>883</v>
-      </c>
       <c r="T10" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U10" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="W10" s="20" t="s">
         <v>870</v>
-      </c>
-      <c r="V10" s="21" t="s">
-        <v>871</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>872</v>
       </c>
       <c r="X10" s="23">
         <v>41408</v>
       </c>
       <c r="Y10" s="32" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="Z10" s="19"/>
       <c r="AA10" s="18" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AB10" s="20">
         <v>2</v>
@@ -17586,22 +17583,22 @@
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="AH10" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="AI10" s="29" t="s">
         <v>875</v>
       </c>
-      <c r="AH10" s="29" t="s">
+      <c r="AJ10" s="24" t="s">
         <v>876</v>
       </c>
-      <c r="AI10" s="29" t="s">
+      <c r="AK10" s="24" t="s">
         <v>877</v>
       </c>
-      <c r="AJ10" s="24" t="s">
+      <c r="AL10" s="19" t="s">
         <v>878</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="AL10" s="19" t="s">
-        <v>880</v>
       </c>
       <c r="AM10" s="19"/>
       <c r="AN10" s="26"/>
@@ -17614,49 +17611,49 @@
       <c r="AQ10" s="44"/>
       <c r="AR10" s="28"/>
       <c r="AS10" s="26" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AT10" s="26" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AU10" s="44"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="19"/>
       <c r="AX10" s="19"/>
       <c r="AY10" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AZ10" s="19"/>
       <c r="BA10" s="19"/>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19"/>
       <c r="BD10" s="37" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="BE10" s="22"/>
       <c r="BF10" s="22"/>
     </row>
     <row r="11" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="F11" s="25" t="s">
         <v>891</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="G11" s="21" t="s">
         <v>892</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>894</v>
       </c>
       <c r="H11" s="25">
         <v>1</v>
@@ -17666,10 +17663,10 @@
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -17678,35 +17675,35 @@
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="S11" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="R11" s="25" t="s">
-        <v>909</v>
-      </c>
-      <c r="S11" s="25" t="s">
-        <v>910</v>
-      </c>
       <c r="T11" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U11" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="W11" s="18" t="s">
         <v>897</v>
-      </c>
-      <c r="V11" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>899</v>
       </c>
       <c r="X11" s="23">
         <v>41408</v>
       </c>
       <c r="Y11" s="32" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Z11" s="19"/>
       <c r="AA11" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AB11" s="20">
         <v>2</v>
@@ -17716,22 +17713,22 @@
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="AH11" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="AI11" s="29" t="s">
         <v>902</v>
       </c>
-      <c r="AH11" s="29" t="s">
+      <c r="AJ11" s="24" t="s">
         <v>903</v>
       </c>
-      <c r="AI11" s="29" t="s">
+      <c r="AK11" s="24" t="s">
         <v>904</v>
       </c>
-      <c r="AJ11" s="24" t="s">
+      <c r="AL11" s="19" t="s">
         <v>905</v>
-      </c>
-      <c r="AK11" s="24" t="s">
-        <v>906</v>
-      </c>
-      <c r="AL11" s="19" t="s">
-        <v>907</v>
       </c>
       <c r="AM11" s="19"/>
       <c r="AN11" s="26"/>
@@ -17744,49 +17741,49 @@
       <c r="AQ11" s="44"/>
       <c r="AR11" s="28"/>
       <c r="AS11" s="26" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AT11" s="26" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AU11" s="44"/>
       <c r="AV11" s="19"/>
       <c r="AW11" s="19"/>
       <c r="AX11" s="19"/>
       <c r="AY11" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AZ11" s="19"/>
       <c r="BA11" s="19"/>
       <c r="BB11" s="19"/>
       <c r="BC11" s="19"/>
       <c r="BD11" s="37" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="BE11" s="22"/>
       <c r="BF11" s="22"/>
     </row>
     <row r="12" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>915</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>916</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="F12" s="25" t="s">
         <v>918</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="G12" s="21" t="s">
         <v>919</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>920</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>921</v>
       </c>
       <c r="H12" s="25">
         <v>1</v>
@@ -17796,10 +17793,10 @@
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="21" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
@@ -17808,35 +17805,35 @@
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="S12" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="R12" s="25" t="s">
-        <v>936</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>937</v>
-      </c>
       <c r="T12" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U12" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="W12" s="20" t="s">
         <v>924</v>
-      </c>
-      <c r="V12" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>926</v>
       </c>
       <c r="X12" s="23">
         <v>41408</v>
       </c>
       <c r="Y12" s="32" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="Z12" s="19"/>
       <c r="AA12" s="18" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AB12" s="20">
         <v>2</v>
@@ -17846,22 +17843,22 @@
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="AH12" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="AI12" s="29" t="s">
         <v>929</v>
       </c>
-      <c r="AH12" s="29" t="s">
+      <c r="AJ12" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="AI12" s="29" t="s">
+      <c r="AK12" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="AJ12" s="24" t="s">
+      <c r="AL12" s="19" t="s">
         <v>932</v>
-      </c>
-      <c r="AK12" s="24" t="s">
-        <v>933</v>
-      </c>
-      <c r="AL12" s="19" t="s">
-        <v>934</v>
       </c>
       <c r="AM12" s="19"/>
       <c r="AN12" s="26"/>
@@ -17874,49 +17871,49 @@
       <c r="AQ12" s="44"/>
       <c r="AR12" s="28"/>
       <c r="AS12" s="26" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AT12" s="26" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AU12" s="44"/>
       <c r="AV12" s="19"/>
       <c r="AW12" s="19"/>
       <c r="AX12" s="19"/>
       <c r="AY12" s="18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AZ12" s="19"/>
       <c r="BA12" s="19"/>
       <c r="BB12" s="19"/>
       <c r="BC12" s="19"/>
       <c r="BD12" s="37" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="BE12" s="22"/>
       <c r="BF12" s="22"/>
     </row>
     <row r="13" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>943</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="F13" s="25" t="s">
         <v>945</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="G13" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>948</v>
       </c>
       <c r="H13" s="25">
         <v>1</v>
@@ -17926,10 +17923,10 @@
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="21" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
@@ -17938,35 +17935,35 @@
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="25" t="s">
+        <v>960</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="S13" s="25" t="s">
         <v>962</v>
       </c>
-      <c r="R13" s="25" t="s">
-        <v>963</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>964</v>
-      </c>
       <c r="T13" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U13" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="W13" s="18" t="s">
         <v>951</v>
-      </c>
-      <c r="V13" s="21" t="s">
-        <v>952</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>953</v>
       </c>
       <c r="X13" s="23">
         <v>41408</v>
       </c>
       <c r="Y13" s="32" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="Z13" s="19"/>
       <c r="AA13" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AB13" s="20">
         <v>2</v>
@@ -17976,22 +17973,22 @@
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="24" t="s">
+        <v>954</v>
+      </c>
+      <c r="AH13" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="AI13" s="29" t="s">
         <v>956</v>
       </c>
-      <c r="AH13" s="29" t="s">
+      <c r="AJ13" s="24" t="s">
         <v>957</v>
       </c>
-      <c r="AI13" s="29" t="s">
+      <c r="AK13" s="24" t="s">
         <v>958</v>
       </c>
-      <c r="AJ13" s="24" t="s">
+      <c r="AL13" s="19" t="s">
         <v>959</v>
-      </c>
-      <c r="AK13" s="24" t="s">
-        <v>960</v>
-      </c>
-      <c r="AL13" s="19" t="s">
-        <v>961</v>
       </c>
       <c r="AM13" s="19"/>
       <c r="AN13" s="26"/>
@@ -18004,49 +18001,49 @@
       <c r="AQ13" s="44"/>
       <c r="AR13" s="28"/>
       <c r="AS13" s="26" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AT13" s="26" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AU13" s="44"/>
       <c r="AV13" s="19"/>
       <c r="AW13" s="19"/>
       <c r="AX13" s="19"/>
       <c r="AY13" s="18" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AZ13" s="19"/>
       <c r="BA13" s="19"/>
       <c r="BB13" s="19"/>
       <c r="BC13" s="19"/>
       <c r="BD13" s="37" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="BE13" s="22"/>
       <c r="BF13" s="22"/>
     </row>
     <row r="14" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>970</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>971</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="F14" s="25" t="s">
         <v>972</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="G14" s="21" t="s">
         <v>973</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>974</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>975</v>
       </c>
       <c r="H14" s="25">
         <v>1</v>
@@ -18056,10 +18053,10 @@
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="21" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -18068,35 +18065,35 @@
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="S14" s="25" t="s">
         <v>989</v>
       </c>
-      <c r="R14" s="25" t="s">
-        <v>990</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>991</v>
-      </c>
       <c r="T14" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U14" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="V14" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="W14" s="20" t="s">
         <v>978</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>979</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>980</v>
       </c>
       <c r="X14" s="23">
         <v>41408</v>
       </c>
       <c r="Y14" s="32" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="Z14" s="19"/>
       <c r="AA14" s="18" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AB14" s="20">
         <v>2</v>
@@ -18106,22 +18103,22 @@
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="24" t="s">
+        <v>981</v>
+      </c>
+      <c r="AH14" s="29" t="s">
+        <v>982</v>
+      </c>
+      <c r="AI14" s="29" t="s">
         <v>983</v>
       </c>
-      <c r="AH14" s="29" t="s">
+      <c r="AJ14" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="AI14" s="29" t="s">
+      <c r="AK14" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="AJ14" s="24" t="s">
+      <c r="AL14" s="19" t="s">
         <v>986</v>
-      </c>
-      <c r="AK14" s="24" t="s">
-        <v>987</v>
-      </c>
-      <c r="AL14" s="19" t="s">
-        <v>988</v>
       </c>
       <c r="AM14" s="19"/>
       <c r="AN14" s="26"/>
@@ -18134,49 +18131,49 @@
       <c r="AQ14" s="44"/>
       <c r="AR14" s="28"/>
       <c r="AS14" s="26" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AT14" s="26" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AU14" s="44"/>
       <c r="AV14" s="19"/>
       <c r="AW14" s="19"/>
       <c r="AX14" s="19"/>
       <c r="AY14" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AZ14" s="19"/>
       <c r="BA14" s="19"/>
       <c r="BB14" s="19"/>
       <c r="BC14" s="19"/>
       <c r="BD14" s="37" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="BE14" s="22"/>
       <c r="BF14" s="22"/>
     </row>
     <row r="15" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>996</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>997</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>998</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="F15" s="25" t="s">
         <v>999</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="G15" s="21" t="s">
         <v>1000</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>1002</v>
       </c>
       <c r="H15" s="25">
         <v>1</v>
@@ -18186,10 +18183,10 @@
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="21" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -18198,35 +18195,35 @@
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S15" s="25" t="s">
         <v>1016</v>
       </c>
-      <c r="R15" s="25" t="s">
-        <v>1017</v>
-      </c>
-      <c r="S15" s="25" t="s">
-        <v>1018</v>
-      </c>
       <c r="T15" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="W15" s="18" t="s">
         <v>1005</v>
-      </c>
-      <c r="V15" s="21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="W15" s="18" t="s">
-        <v>1007</v>
       </c>
       <c r="X15" s="23">
         <v>41408</v>
       </c>
       <c r="Y15" s="32" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="Z15" s="19"/>
       <c r="AA15" s="18" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="AB15" s="20">
         <v>2</v>
@@ -18236,22 +18233,22 @@
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AH15" s="29" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AI15" s="29" t="s">
         <v>1010</v>
       </c>
-      <c r="AH15" s="29" t="s">
+      <c r="AJ15" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="AI15" s="29" t="s">
+      <c r="AK15" s="24" t="s">
         <v>1012</v>
       </c>
-      <c r="AJ15" s="24" t="s">
+      <c r="AL15" s="19" t="s">
         <v>1013</v>
-      </c>
-      <c r="AK15" s="24" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AL15" s="19" t="s">
-        <v>1015</v>
       </c>
       <c r="AM15" s="19"/>
       <c r="AN15" s="26"/>
@@ -18264,49 +18261,49 @@
       <c r="AQ15" s="44"/>
       <c r="AR15" s="28"/>
       <c r="AS15" s="26" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AT15" s="26" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AU15" s="44"/>
       <c r="AV15" s="21"/>
       <c r="AW15" s="21"/>
       <c r="AX15" s="21"/>
       <c r="AY15" s="18" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AZ15" s="19"/>
       <c r="BA15" s="19"/>
       <c r="BB15" s="19"/>
       <c r="BC15" s="19"/>
       <c r="BD15" s="37" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="BE15" s="22"/>
       <c r="BF15" s="22"/>
     </row>
     <row r="16" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>1024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>1025</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="F16" s="25" t="s">
         <v>1026</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="G16" s="21" t="s">
         <v>1027</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>1029</v>
       </c>
       <c r="H16" s="25">
         <v>1</v>
@@ -18316,10 +18313,10 @@
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="21" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -18328,35 +18325,35 @@
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S16" s="25" t="s">
         <v>1043</v>
       </c>
-      <c r="R16" s="25" t="s">
-        <v>1044</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>1045</v>
-      </c>
       <c r="T16" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U16" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="W16" s="20" t="s">
         <v>1032</v>
-      </c>
-      <c r="V16" s="21" t="s">
-        <v>1033</v>
-      </c>
-      <c r="W16" s="20" t="s">
-        <v>1034</v>
       </c>
       <c r="X16" s="23">
         <v>41408</v>
       </c>
       <c r="Y16" s="32" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="18" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AB16" s="20">
         <v>2</v>
@@ -18366,22 +18363,22 @@
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AH16" s="29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AI16" s="29" t="s">
         <v>1037</v>
       </c>
-      <c r="AH16" s="29" t="s">
+      <c r="AJ16" s="24" t="s">
         <v>1038</v>
       </c>
-      <c r="AI16" s="29" t="s">
+      <c r="AK16" s="24" t="s">
         <v>1039</v>
       </c>
-      <c r="AJ16" s="24" t="s">
+      <c r="AL16" s="19" t="s">
         <v>1040</v>
-      </c>
-      <c r="AK16" s="24" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AL16" s="19" t="s">
-        <v>1042</v>
       </c>
       <c r="AM16" s="19"/>
       <c r="AN16" s="26"/>
@@ -18394,49 +18391,49 @@
       <c r="AQ16" s="44"/>
       <c r="AR16" s="28"/>
       <c r="AS16" s="26" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AT16" s="26" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AU16" s="44"/>
       <c r="AV16" s="21"/>
       <c r="AW16" s="21"/>
       <c r="AX16" s="21"/>
       <c r="AY16" s="18" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AZ16" s="19"/>
       <c r="BA16" s="19"/>
       <c r="BB16" s="19"/>
       <c r="BC16" s="19"/>
       <c r="BD16" s="37" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="BE16" s="22"/>
       <c r="BF16" s="22"/>
     </row>
     <row r="17" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>1050</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>1051</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>1052</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="F17" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="G17" s="21" t="s">
         <v>1054</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>1056</v>
       </c>
       <c r="H17" s="25">
         <v>1</v>
@@ -18446,10 +18443,10 @@
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="21" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -18458,35 +18455,35 @@
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S17" s="25" t="s">
         <v>1070</v>
       </c>
-      <c r="R17" s="25" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S17" s="25" t="s">
-        <v>1072</v>
-      </c>
       <c r="T17" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U17" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="W17" s="18" t="s">
         <v>1059</v>
-      </c>
-      <c r="V17" s="21" t="s">
-        <v>1060</v>
-      </c>
-      <c r="W17" s="18" t="s">
-        <v>1061</v>
       </c>
       <c r="X17" s="23">
         <v>41408</v>
       </c>
       <c r="Y17" s="32" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Z17" s="19"/>
       <c r="AA17" s="18" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AB17" s="20">
         <v>2</v>
@@ -18496,22 +18493,22 @@
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AH17" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AI17" s="29" t="s">
         <v>1064</v>
       </c>
-      <c r="AH17" s="29" t="s">
+      <c r="AJ17" s="24" t="s">
         <v>1065</v>
       </c>
-      <c r="AI17" s="29" t="s">
+      <c r="AK17" s="24" t="s">
         <v>1066</v>
       </c>
-      <c r="AJ17" s="24" t="s">
+      <c r="AL17" s="19" t="s">
         <v>1067</v>
-      </c>
-      <c r="AK17" s="24" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AL17" s="19" t="s">
-        <v>1069</v>
       </c>
       <c r="AM17" s="19"/>
       <c r="AN17" s="28"/>
@@ -18524,49 +18521,49 @@
       <c r="AQ17" s="44"/>
       <c r="AR17" s="28"/>
       <c r="AS17" s="26" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AT17" s="26" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AU17" s="44"/>
       <c r="AV17" s="21"/>
       <c r="AW17" s="21"/>
       <c r="AX17" s="21"/>
       <c r="AY17" s="18" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AZ17" s="19"/>
       <c r="BA17" s="19"/>
       <c r="BB17" s="19"/>
       <c r="BC17" s="19"/>
       <c r="BD17" s="37" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="BE17" s="22"/>
       <c r="BF17" s="22"/>
     </row>
     <row r="18" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>1077</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>1078</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>1079</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="F18" s="25" t="s">
         <v>1080</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="G18" s="21" t="s">
         <v>1081</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>1083</v>
       </c>
       <c r="H18" s="25">
         <v>1</v>
@@ -18576,10 +18573,10 @@
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="21" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
@@ -18588,35 +18585,35 @@
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="25" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>1097</v>
       </c>
-      <c r="R18" s="25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>1099</v>
-      </c>
       <c r="T18" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U18" s="18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="V18" s="21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="W18" s="20" t="s">
         <v>1086</v>
-      </c>
-      <c r="V18" s="21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="W18" s="20" t="s">
-        <v>1088</v>
       </c>
       <c r="X18" s="23">
         <v>41408</v>
       </c>
       <c r="Y18" s="32" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="18" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AB18" s="20">
         <v>2</v>
@@ -18626,22 +18623,22 @@
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AH18" s="29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI18" s="29" t="s">
         <v>1091</v>
       </c>
-      <c r="AH18" s="29" t="s">
+      <c r="AJ18" s="24" t="s">
         <v>1092</v>
       </c>
-      <c r="AI18" s="29" t="s">
+      <c r="AK18" s="24" t="s">
         <v>1093</v>
       </c>
-      <c r="AJ18" s="24" t="s">
+      <c r="AL18" s="19" t="s">
         <v>1094</v>
-      </c>
-      <c r="AK18" s="24" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AL18" s="19" t="s">
-        <v>1096</v>
       </c>
       <c r="AM18" s="19"/>
       <c r="AN18" s="28"/>
@@ -18654,49 +18651,49 @@
       <c r="AQ18" s="44"/>
       <c r="AR18" s="28"/>
       <c r="AS18" s="26" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AT18" s="26" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AU18" s="44"/>
       <c r="AV18" s="21"/>
       <c r="AW18" s="21"/>
       <c r="AX18" s="21"/>
       <c r="AY18" s="18" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AZ18" s="19"/>
       <c r="BA18" s="19"/>
       <c r="BB18" s="19"/>
       <c r="BC18" s="19"/>
       <c r="BD18" s="37" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="BE18" s="22"/>
       <c r="BF18" s="22"/>
     </row>
     <row r="19" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>1104</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>1105</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>1106</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="F19" s="25" t="s">
         <v>1107</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="G19" s="21" t="s">
         <v>1108</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>1110</v>
       </c>
       <c r="H19" s="25">
         <v>1</v>
@@ -18706,10 +18703,10 @@
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="21" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
@@ -18718,35 +18715,35 @@
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="25" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S19" s="25" t="s">
         <v>1124</v>
       </c>
-      <c r="R19" s="25" t="s">
-        <v>1125</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>1126</v>
-      </c>
       <c r="T19" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U19" s="18" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="W19" s="18" t="s">
         <v>1113</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>1114</v>
-      </c>
-      <c r="W19" s="18" t="s">
-        <v>1115</v>
       </c>
       <c r="X19" s="23">
         <v>41408</v>
       </c>
       <c r="Y19" s="32" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="Z19" s="19"/>
       <c r="AA19" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AB19" s="20">
         <v>2</v>
@@ -18756,22 +18753,22 @@
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="24" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AH19" s="29" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AI19" s="29" t="s">
         <v>1118</v>
       </c>
-      <c r="AH19" s="29" t="s">
+      <c r="AJ19" s="24" t="s">
         <v>1119</v>
       </c>
-      <c r="AI19" s="29" t="s">
+      <c r="AK19" s="24" t="s">
         <v>1120</v>
       </c>
-      <c r="AJ19" s="24" t="s">
+      <c r="AL19" s="19" t="s">
         <v>1121</v>
-      </c>
-      <c r="AK19" s="24" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AL19" s="19" t="s">
-        <v>1123</v>
       </c>
       <c r="AM19" s="19"/>
       <c r="AN19" s="28"/>
@@ -18784,49 +18781,49 @@
       <c r="AQ19" s="44"/>
       <c r="AR19" s="28"/>
       <c r="AS19" s="26" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AT19" s="26" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AU19" s="44"/>
       <c r="AV19" s="21"/>
       <c r="AW19" s="21"/>
       <c r="AX19" s="21"/>
       <c r="AY19" s="18" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AZ19" s="19"/>
       <c r="BA19" s="19"/>
       <c r="BB19" s="19"/>
       <c r="BC19" s="19"/>
       <c r="BD19" s="37" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="BE19" s="22"/>
       <c r="BF19" s="22"/>
     </row>
     <row r="20" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>1131</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>1132</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>1133</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="F20" s="25" t="s">
         <v>1134</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="G20" s="21" t="s">
         <v>1135</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>1137</v>
       </c>
       <c r="H20" s="25">
         <v>1</v>
@@ -18836,10 +18833,10 @@
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="21" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -18848,35 +18845,35 @@
       </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="25" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>1151</v>
       </c>
-      <c r="R20" s="25" t="s">
-        <v>1152</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>1153</v>
-      </c>
       <c r="T20" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U20" s="18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="V20" s="21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="W20" s="20" t="s">
         <v>1140</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>1141</v>
-      </c>
-      <c r="W20" s="20" t="s">
-        <v>1142</v>
       </c>
       <c r="X20" s="23">
         <v>41408</v>
       </c>
       <c r="Y20" s="32" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="Z20" s="19"/>
       <c r="AA20" s="18" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AB20" s="20">
         <v>2</v>
@@ -18886,22 +18883,22 @@
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AH20" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AI20" s="29" t="s">
         <v>1145</v>
       </c>
-      <c r="AH20" s="29" t="s">
+      <c r="AJ20" s="24" t="s">
         <v>1146</v>
       </c>
-      <c r="AI20" s="29" t="s">
+      <c r="AK20" s="24" t="s">
         <v>1147</v>
       </c>
-      <c r="AJ20" s="24" t="s">
+      <c r="AL20" s="19" t="s">
         <v>1148</v>
-      </c>
-      <c r="AK20" s="24" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AL20" s="19" t="s">
-        <v>1150</v>
       </c>
       <c r="AM20" s="19"/>
       <c r="AN20" s="28"/>
@@ -18914,49 +18911,49 @@
       <c r="AQ20" s="44"/>
       <c r="AR20" s="28"/>
       <c r="AS20" s="26" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AT20" s="26" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AU20" s="44"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
       <c r="AX20" s="21"/>
       <c r="AY20" s="18" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AZ20" s="19"/>
       <c r="BA20" s="19"/>
       <c r="BB20" s="19"/>
       <c r="BC20" s="19"/>
       <c r="BD20" s="37" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="BE20" s="22"/>
       <c r="BF20" s="22"/>
     </row>
     <row r="21" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>1158</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>1159</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>1160</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="F21" s="25" t="s">
         <v>1161</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="G21" s="21" t="s">
         <v>1162</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>1164</v>
       </c>
       <c r="H21" s="25">
         <v>1</v>
@@ -18966,10 +18963,10 @@
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="21" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
@@ -18978,35 +18975,35 @@
       </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S21" s="25" t="s">
         <v>1178</v>
       </c>
-      <c r="R21" s="25" t="s">
-        <v>1179</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>1180</v>
-      </c>
       <c r="T21" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U21" s="18" t="s">
+        <v>1165</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>1166</v>
+      </c>
+      <c r="W21" s="18" t="s">
         <v>1167</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>1168</v>
-      </c>
-      <c r="W21" s="18" t="s">
-        <v>1169</v>
       </c>
       <c r="X21" s="23">
         <v>41408</v>
       </c>
       <c r="Y21" s="32" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="Z21" s="19"/>
       <c r="AA21" s="18" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AB21" s="20">
         <v>2</v>
@@ -19016,22 +19013,22 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="24" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AH21" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AI21" s="29" t="s">
         <v>1172</v>
       </c>
-      <c r="AH21" s="29" t="s">
+      <c r="AJ21" s="24" t="s">
         <v>1173</v>
       </c>
-      <c r="AI21" s="29" t="s">
+      <c r="AK21" s="24" t="s">
         <v>1174</v>
       </c>
-      <c r="AJ21" s="24" t="s">
+      <c r="AL21" s="19" t="s">
         <v>1175</v>
-      </c>
-      <c r="AK21" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AL21" s="19" t="s">
-        <v>1177</v>
       </c>
       <c r="AM21" s="19"/>
       <c r="AN21" s="28"/>
@@ -19044,49 +19041,49 @@
       <c r="AQ21" s="44"/>
       <c r="AR21" s="28"/>
       <c r="AS21" s="26" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AT21" s="26" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AU21" s="44"/>
       <c r="AV21" s="21"/>
       <c r="AW21" s="21"/>
       <c r="AX21" s="21"/>
       <c r="AY21" s="18" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AZ21" s="19"/>
       <c r="BA21" s="19"/>
       <c r="BB21" s="19"/>
       <c r="BC21" s="19"/>
       <c r="BD21" s="37" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="BE21" s="22"/>
       <c r="BF21" s="22"/>
     </row>
     <row r="22" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>1185</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>1186</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>1187</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="F22" s="25" t="s">
         <v>1188</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="G22" s="21" t="s">
         <v>1189</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>1191</v>
       </c>
       <c r="H22" s="25">
         <v>1</v>
@@ -19096,10 +19093,10 @@
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="21" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -19108,35 +19105,35 @@
       </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="25" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>1204</v>
+      </c>
+      <c r="S22" s="25" t="s">
         <v>1205</v>
       </c>
-      <c r="R22" s="25" t="s">
-        <v>1206</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>1207</v>
-      </c>
       <c r="T22" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U22" s="18" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W22" s="20" t="s">
         <v>1194</v>
-      </c>
-      <c r="V22" s="21" t="s">
-        <v>1195</v>
-      </c>
-      <c r="W22" s="20" t="s">
-        <v>1196</v>
       </c>
       <c r="X22" s="23">
         <v>41408</v>
       </c>
       <c r="Y22" s="32" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Z22" s="19"/>
       <c r="AA22" s="18" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="AB22" s="20">
         <v>2</v>
@@ -19146,22 +19143,22 @@
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="24" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AH22" s="29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AI22" s="29" t="s">
         <v>1199</v>
       </c>
-      <c r="AH22" s="29" t="s">
+      <c r="AJ22" s="24" t="s">
         <v>1200</v>
       </c>
-      <c r="AI22" s="29" t="s">
+      <c r="AK22" s="24" t="s">
         <v>1201</v>
       </c>
-      <c r="AJ22" s="24" t="s">
+      <c r="AL22" s="19" t="s">
         <v>1202</v>
-      </c>
-      <c r="AK22" s="24" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AL22" s="19" t="s">
-        <v>1204</v>
       </c>
       <c r="AM22" s="19"/>
       <c r="AN22" s="28"/>
@@ -19174,49 +19171,49 @@
       <c r="AQ22" s="44"/>
       <c r="AR22" s="28"/>
       <c r="AS22" s="26" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="AT22" s="26" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AU22" s="44"/>
       <c r="AV22" s="21"/>
       <c r="AW22" s="21"/>
       <c r="AX22" s="21"/>
       <c r="AY22" s="18" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AZ22" s="19"/>
       <c r="BA22" s="19"/>
       <c r="BB22" s="19"/>
       <c r="BC22" s="19"/>
       <c r="BD22" s="37" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="BE22" s="22"/>
       <c r="BF22" s="22"/>
     </row>
     <row r="23" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>1212</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>1213</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>1214</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="F23" s="25" t="s">
         <v>1215</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="G23" s="21" t="s">
         <v>1216</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>1218</v>
       </c>
       <c r="H23" s="25">
         <v>1</v>
@@ -19226,10 +19223,10 @@
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="21" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
@@ -19238,35 +19235,35 @@
       </c>
       <c r="P23" s="21"/>
       <c r="Q23" s="25" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>1231</v>
+      </c>
+      <c r="S23" s="25" t="s">
         <v>1232</v>
       </c>
-      <c r="R23" s="25" t="s">
-        <v>1233</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>1234</v>
-      </c>
       <c r="T23" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U23" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="W23" s="18" t="s">
         <v>1221</v>
-      </c>
-      <c r="V23" s="21" t="s">
-        <v>1222</v>
-      </c>
-      <c r="W23" s="18" t="s">
-        <v>1223</v>
       </c>
       <c r="X23" s="23">
         <v>41408</v>
       </c>
       <c r="Y23" s="32" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Z23" s="19"/>
       <c r="AA23" s="18" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AB23" s="20">
         <v>2</v>
@@ -19276,22 +19273,22 @@
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="24" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AH23" s="29" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AI23" s="29" t="s">
         <v>1226</v>
       </c>
-      <c r="AH23" s="29" t="s">
+      <c r="AJ23" s="24" t="s">
         <v>1227</v>
       </c>
-      <c r="AI23" s="29" t="s">
+      <c r="AK23" s="24" t="s">
         <v>1228</v>
       </c>
-      <c r="AJ23" s="24" t="s">
+      <c r="AL23" s="21" t="s">
         <v>1229</v>
-      </c>
-      <c r="AK23" s="24" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AL23" s="21" t="s">
-        <v>1231</v>
       </c>
       <c r="AM23" s="19"/>
       <c r="AN23" s="28"/>
@@ -19304,49 +19301,49 @@
       <c r="AQ23" s="44"/>
       <c r="AR23" s="28"/>
       <c r="AS23" s="26" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="AT23" s="26" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="AU23" s="44"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
       <c r="AX23" s="19"/>
       <c r="AY23" s="18" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AZ23" s="19"/>
       <c r="BA23" s="19"/>
       <c r="BB23" s="19"/>
       <c r="BC23" s="19"/>
       <c r="BD23" s="37" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="BE23" s="22"/>
       <c r="BF23" s="22"/>
     </row>
     <row r="24" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>1239</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>1240</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="E24" s="38" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>1241</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="G24" s="21" t="s">
         <v>1242</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>1244</v>
       </c>
       <c r="H24" s="25">
         <v>1</v>
@@ -19356,10 +19353,10 @@
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="21" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
@@ -19368,35 +19365,35 @@
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="25" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="S24" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="R24" s="25" t="s">
-        <v>1259</v>
-      </c>
-      <c r="S24" s="25" t="s">
-        <v>1260</v>
-      </c>
       <c r="T24" s="63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U24" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="V24" s="21" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W24" s="20" t="s">
         <v>1247</v>
-      </c>
-      <c r="V24" s="21" t="s">
-        <v>1248</v>
-      </c>
-      <c r="W24" s="20" t="s">
-        <v>1249</v>
       </c>
       <c r="X24" s="23">
         <v>41408</v>
       </c>
       <c r="Y24" s="32" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="Z24" s="19"/>
       <c r="AA24" s="18" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="AB24" s="20">
         <v>2</v>
@@ -19406,22 +19403,22 @@
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AH24" s="29" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AI24" s="29" t="s">
         <v>1252</v>
       </c>
-      <c r="AH24" s="29" t="s">
+      <c r="AJ24" s="24" t="s">
         <v>1253</v>
       </c>
-      <c r="AI24" s="29" t="s">
+      <c r="AK24" s="24" t="s">
         <v>1254</v>
       </c>
-      <c r="AJ24" s="24" t="s">
+      <c r="AL24" s="21" t="s">
         <v>1255</v>
-      </c>
-      <c r="AK24" s="24" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AL24" s="21" t="s">
-        <v>1257</v>
       </c>
       <c r="AM24" s="19"/>
       <c r="AN24" s="28"/>
@@ -19434,24 +19431,24 @@
       <c r="AQ24" s="44"/>
       <c r="AR24" s="28"/>
       <c r="AS24" s="26" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="AT24" s="26" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="AU24" s="44"/>
       <c r="AV24" s="19"/>
       <c r="AW24" s="19"/>
       <c r="AX24" s="19"/>
       <c r="AY24" s="18" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="AZ24" s="19"/>
       <c r="BA24" s="19"/>
       <c r="BB24" s="19"/>
       <c r="BC24" s="19"/>
       <c r="BD24" s="37" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="BE24" s="22"/>
       <c r="BF24" s="22"/>

--- a/test/test02.xlsx
+++ b/test/test02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="460" windowWidth="39880" windowHeight="18520" tabRatio="500"/>
+    <workbookView xWindow="19980" yWindow="1200" windowWidth="39880" windowHeight="18520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -6403,41 +6406,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.796875" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="20.796875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="22" width="17.1640625" customWidth="1"/>
+    <col min="12" max="13" width="15.3984375" customWidth="1"/>
+    <col min="14" max="22" width="17.19921875" customWidth="1"/>
     <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="17.1640625" customWidth="1"/>
+    <col min="24" max="24" width="17.19921875" customWidth="1"/>
     <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="17.1640625" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" customWidth="1"/>
-    <col min="28" max="28" width="17.1640625" customWidth="1"/>
+    <col min="26" max="26" width="17.19921875" customWidth="1"/>
+    <col min="27" max="27" width="20.3984375" customWidth="1"/>
+    <col min="28" max="28" width="17.19921875" customWidth="1"/>
     <col min="29" max="29" width="20" customWidth="1"/>
-    <col min="30" max="30" width="22.1640625" customWidth="1"/>
-    <col min="31" max="37" width="17.1640625" customWidth="1"/>
-    <col min="38" max="38" width="17.83203125" customWidth="1"/>
-    <col min="39" max="41" width="17.1640625" customWidth="1"/>
-    <col min="42" max="42" width="16.1640625" customWidth="1"/>
-    <col min="43" max="43" width="20.33203125" customWidth="1"/>
-    <col min="44" max="44" width="28.6640625" customWidth="1"/>
-    <col min="45" max="253" width="17.1640625" customWidth="1"/>
+    <col min="30" max="30" width="22.19921875" customWidth="1"/>
+    <col min="31" max="37" width="17.19921875" customWidth="1"/>
+    <col min="38" max="38" width="17.796875" customWidth="1"/>
+    <col min="39" max="41" width="17.19921875" customWidth="1"/>
+    <col min="42" max="42" width="16.19921875" customWidth="1"/>
+    <col min="43" max="43" width="20.3984375" customWidth="1"/>
+    <col min="44" max="44" width="28.59765625" customWidth="1"/>
+    <col min="45" max="253" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:253" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16164,41 +16167,41 @@
       <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" customWidth="1"/>
+    <col min="6" max="6" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
+    <col min="8" max="9" width="14.19921875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="27.83203125" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" customWidth="1"/>
-    <col min="17" max="19" width="20.1640625" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" customWidth="1"/>
-    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.796875" customWidth="1"/>
+    <col min="13" max="13" width="21.19921875" customWidth="1"/>
+    <col min="14" max="14" width="24.59765625" customWidth="1"/>
+    <col min="15" max="15" width="12.796875" customWidth="1"/>
+    <col min="16" max="16" width="14.19921875" customWidth="1"/>
+    <col min="17" max="19" width="20.19921875" customWidth="1"/>
+    <col min="20" max="20" width="22.3984375" customWidth="1"/>
+    <col min="21" max="21" width="14.19921875" customWidth="1"/>
+    <col min="22" max="22" width="22.3984375" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="25" width="15.33203125" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" customWidth="1"/>
-    <col min="27" max="33" width="17.1640625" customWidth="1"/>
-    <col min="34" max="34" width="19.83203125" customWidth="1"/>
-    <col min="35" max="37" width="17.1640625" customWidth="1"/>
+    <col min="24" max="25" width="15.3984375" customWidth="1"/>
+    <col min="26" max="26" width="21.59765625" customWidth="1"/>
+    <col min="27" max="33" width="17.19921875" customWidth="1"/>
+    <col min="34" max="34" width="19.796875" customWidth="1"/>
+    <col min="35" max="37" width="17.19921875" customWidth="1"/>
     <col min="38" max="38" width="22" customWidth="1"/>
-    <col min="39" max="41" width="17.1640625" customWidth="1"/>
-    <col min="42" max="42" width="19.83203125" customWidth="1"/>
-    <col min="43" max="43" width="22.33203125" customWidth="1"/>
-    <col min="44" max="55" width="17.1640625" customWidth="1"/>
-    <col min="56" max="56" width="20.1640625" customWidth="1"/>
-    <col min="57" max="57" width="20.33203125" customWidth="1"/>
-    <col min="58" max="58" width="28.6640625" customWidth="1"/>
+    <col min="39" max="41" width="17.19921875" customWidth="1"/>
+    <col min="42" max="42" width="19.796875" customWidth="1"/>
+    <col min="43" max="43" width="22.3984375" customWidth="1"/>
+    <col min="44" max="55" width="17.19921875" customWidth="1"/>
+    <col min="56" max="56" width="20.19921875" customWidth="1"/>
+    <col min="57" max="57" width="20.3984375" customWidth="1"/>
+    <col min="58" max="58" width="28.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
